--- a/20 Spielwelt/Datenbasis.xlsx
+++ b/20 Spielwelt/Datenbasis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>X-Wing</t>
   </si>
@@ -58,6 +58,39 @@
   </si>
   <si>
     <t>Gesamtkosten</t>
+  </si>
+  <si>
+    <t>Anfangswerte</t>
+  </si>
+  <si>
+    <t>Startkapital:</t>
+  </si>
+  <si>
+    <t>Produktion (X-Wing):</t>
+  </si>
+  <si>
+    <t>Produktion (Corellian Corvette):</t>
+  </si>
+  <si>
+    <t>Produktion (Millenium Falke):</t>
+  </si>
+  <si>
+    <t>Kosten:</t>
+  </si>
+  <si>
+    <t>Restkapital bei Anfangsproduktion:</t>
+  </si>
+  <si>
+    <t>Startverkaufpreise</t>
+  </si>
+  <si>
+    <t>Gewinn bei Anfangsproduktion:</t>
+  </si>
+  <si>
+    <t>Umsatz (bei vollem Verkauf):</t>
+  </si>
+  <si>
+    <t>Gewinn (bei vollem Verkauf):</t>
   </si>
 </sst>
 </file>
@@ -67,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +132,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +180,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,11 +257,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -215,7 +289,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -224,8 +297,28 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,31 +618,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -561,153 +655,304 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9">
         <v>4</v>
       </c>
-      <c r="C2" s="9">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9">
-        <v>20</v>
+      <c r="B2" s="8">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8">
+        <v>120</v>
+      </c>
+      <c r="D2" s="8">
+        <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4">
-        <v>500000</v>
+        <v>50000000</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9">
-        <v>36</v>
-      </c>
-      <c r="C3" s="9">
-        <v>120</v>
-      </c>
-      <c r="D3" s="9">
-        <v>160</v>
+      <c r="A3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8">
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4">
-        <v>50000</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>200000000</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10">
-        <v>25</v>
-      </c>
-      <c r="D4" s="10">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>200000</v>
+        <v>500000000</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11">
         <f>B2*G2</f>
-        <v>2000000</v>
-      </c>
-      <c r="C5" s="12">
+        <v>1800000000</v>
+      </c>
+      <c r="C5" s="11">
         <f>C2*G2</f>
-        <v>4000000</v>
-      </c>
-      <c r="D5" s="12">
+        <v>6000000000</v>
+      </c>
+      <c r="D5" s="11">
         <f>D2*G2</f>
-        <v>10000000</v>
+        <v>8000000000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12">
-        <f t="shared" ref="B6:B7" si="0">B3*G3</f>
-        <v>1800000</v>
-      </c>
-      <c r="C6" s="12">
-        <f t="shared" ref="C6:C7" si="1">C3*G3</f>
-        <v>6000000</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" ref="D6:D7" si="2">D3*G3</f>
-        <v>8000000</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11">
+        <f>B3*G3</f>
+        <v>1200000000</v>
+      </c>
+      <c r="C6" s="11">
+        <f>C3*G3</f>
+        <v>5000000000</v>
+      </c>
+      <c r="D6" s="11">
+        <f>D3*G3</f>
+        <v>12000000000</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="14">
-        <f t="shared" si="0"/>
-        <v>1200000</v>
-      </c>
-      <c r="C7" s="14">
-        <f t="shared" si="1"/>
-        <v>5000000</v>
-      </c>
-      <c r="D7" s="14">
-        <f t="shared" si="2"/>
-        <v>12000000</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13">
+        <f>B4*G4</f>
+        <v>2000000000</v>
+      </c>
+      <c r="C7" s="13">
+        <f>C4*G4</f>
+        <v>4000000000</v>
+      </c>
+      <c r="D7" s="13">
+        <f>D4*G4</f>
+        <v>10000000000</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="26">
+        <v>1000000000000</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <f>SUM(B5:B7)</f>
-        <v>5000000</v>
-      </c>
-      <c r="C8" s="15">
+        <v>5000000000</v>
+      </c>
+      <c r="C8" s="14">
         <f>SUM(C5:C7)</f>
-        <v>15000000</v>
-      </c>
-      <c r="D8" s="15">
+        <v>15000000000</v>
+      </c>
+      <c r="D8" s="14">
         <f>SUM(D5:D7)</f>
-        <v>30000000</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+        <v>30000000000</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>50</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="28">
+        <f>B8*2</f>
+        <v>10000000000</v>
+      </c>
+      <c r="C9" s="29">
+        <f>C8*2</f>
+        <v>30000000000</v>
+      </c>
+      <c r="D9" s="29">
+        <f>D8*2</f>
+        <v>60000000000</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="30">
+        <f>B8*G8</f>
+        <v>250000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="30">
+        <f>G8*B9</f>
+        <v>500000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="20">
+        <f>G10-G9</f>
+        <v>250000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="30">
+        <f>C8*G12</f>
+        <v>450000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="F14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="30">
+        <f>G12*C9</f>
+        <v>900000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="20">
+        <f>G14-G13</f>
+        <v>450000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="30">
+        <f>D8*G16</f>
+        <v>300000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="30">
+        <f>G16*D9</f>
+        <v>600000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="20">
+        <f>G18-G17</f>
+        <v>300000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="23">
+        <f>G7-G9-G13-G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="32">
+        <f>G11+G15+G19</f>
+        <v>1000000000000</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="D1" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/20 Spielwelt/Datenbasis.xlsx
+++ b/20 Spielwelt/Datenbasis.xlsx
@@ -98,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="[$฿-41E]#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -285,17 +285,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,19 +299,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,14 +636,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -654,216 +654,216 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>36</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>120</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4">
-        <v>50000000</v>
+      <c r="G2" s="22">
+        <v>50</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>25</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4">
-        <v>200000000</v>
+      <c r="G3" s="22">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4">
-        <v>500000000</v>
+      <c r="G4" s="22">
+        <v>500</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="26">
         <f>B2*G2</f>
-        <v>1800000000</v>
-      </c>
-      <c r="C5" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C5" s="26">
         <f>C2*G2</f>
-        <v>6000000000</v>
-      </c>
-      <c r="D5" s="11">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="26">
         <f>D2*G2</f>
-        <v>8000000000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="26">
         <f>B3*G3</f>
-        <v>1200000000</v>
-      </c>
-      <c r="C6" s="11">
+        <v>1200</v>
+      </c>
+      <c r="C6" s="26">
         <f>C3*G3</f>
-        <v>5000000000</v>
-      </c>
-      <c r="D6" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="26">
         <f>D3*G3</f>
-        <v>12000000000</v>
-      </c>
-      <c r="F6" s="18" t="s">
+        <v>12000</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="27">
         <f>B4*G4</f>
-        <v>2000000000</v>
-      </c>
-      <c r="C7" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="27">
         <f>C4*G4</f>
-        <v>4000000000</v>
-      </c>
-      <c r="D7" s="13">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="27">
         <f>D4*G4</f>
-        <v>10000000000</v>
-      </c>
-      <c r="F7" s="22" t="s">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="26">
-        <v>1000000000000</v>
+      <c r="G7" s="23">
+        <v>1000000</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="28">
         <f>SUM(B5:B7)</f>
-        <v>5000000000</v>
-      </c>
-      <c r="C8" s="14">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="28">
         <f>SUM(C5:C7)</f>
-        <v>15000000000</v>
-      </c>
-      <c r="D8" s="14">
+        <v>15000</v>
+      </c>
+      <c r="D8" s="28">
         <f>SUM(D5:D7)</f>
-        <v>30000000000</v>
-      </c>
-      <c r="F8" s="31" t="s">
+        <v>30000</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="16">
         <v>50</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="29">
         <f>B8*2</f>
-        <v>10000000000</v>
-      </c>
-      <c r="C9" s="29">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="30">
         <f>C8*2</f>
-        <v>30000000000</v>
-      </c>
-      <c r="D9" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D9" s="30">
         <f>D8*2</f>
-        <v>60000000000</v>
-      </c>
-      <c r="F9" s="21" t="s">
+        <v>60000</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="24">
         <f>B8*G8</f>
-        <v>250000000000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="24">
         <f>G8*B9</f>
-        <v>500000000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="25">
         <f>G10-G9</f>
-        <v>250000000000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="16">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="24">
         <f>C8*G12</f>
-        <v>450000000000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -871,12 +871,12 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="24">
         <f>G12*C9</f>
-        <v>900000000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -884,65 +884,65 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="25">
         <f>G14-G13</f>
-        <v>450000000000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="24">
         <f>D8*G16</f>
-        <v>300000000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="24">
         <f>G16*D9</f>
-        <v>600000000000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="25">
         <f>G18-G17</f>
-        <v>300000000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="20" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="31">
         <f>G7-G9-G13-G17</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="21" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="32">
         <f>G11+G15+G19</f>
-        <v>1000000000000</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/20 Spielwelt/Datenbasis.xlsx
+++ b/20 Spielwelt/Datenbasis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>X-Wing</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Kosten:</t>
   </si>
   <si>
-    <t>Restkapital bei Anfangsproduktion:</t>
-  </si>
-  <si>
     <t>Startverkaufpreise</t>
   </si>
   <si>
@@ -90,7 +87,58 @@
     <t>Umsatz (bei vollem Verkauf):</t>
   </si>
   <si>
-    <t>Gewinn (bei vollem Verkauf):</t>
+    <t>Personalkosten</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Personalkosten:</t>
+  </si>
+  <si>
+    <t>Personal (*):</t>
+  </si>
+  <si>
+    <t>Personal (**):</t>
+  </si>
+  <si>
+    <t>Personal(***):</t>
+  </si>
+  <si>
+    <t>Minimalwert</t>
+  </si>
+  <si>
+    <t>Maximalwert</t>
+  </si>
+  <si>
+    <t>Lagerkosten/Stück</t>
+  </si>
+  <si>
+    <t>Gesamtumsatz:</t>
+  </si>
+  <si>
+    <t>Gesamtkosten:</t>
+  </si>
+  <si>
+    <t>Sonderteile</t>
+  </si>
+  <si>
+    <t>Geschütz:</t>
+  </si>
+  <si>
+    <t>Großes Lager:</t>
+  </si>
+  <si>
+    <t>Forschungsausstattung:</t>
+  </si>
+  <si>
+    <t>Sonderteilkosten</t>
   </si>
 </sst>
 </file>
@@ -98,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$฿-41E]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +196,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +242,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -237,28 +299,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -275,12 +315,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -291,31 +355,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -323,6 +409,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -618,84 +709,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="D2" s="7">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="22">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="G2" s="21">
+        <v>100</v>
+      </c>
+      <c r="H2" s="34">
+        <f>0.6*G2</f>
+        <v>60</v>
+      </c>
+      <c r="I2" s="34">
+        <f>1.4*G2</f>
+        <v>140</v>
+      </c>
+      <c r="J2" s="34">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="22">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7">
         <v>6</v>
       </c>
       <c r="C3" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="34">
+        <f t="shared" ref="H3:H8" si="0">0.6*G3</f>
+        <v>120</v>
+      </c>
+      <c r="I3" s="34">
+        <f t="shared" ref="I3:I8" si="1">1.4*G3</f>
+        <v>280</v>
+      </c>
+      <c r="J3" s="34">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -703,246 +843,323 @@
         <v>4</v>
       </c>
       <c r="C4" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="8">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="32">
         <v>500</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="39">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="I4" s="39">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="J4" s="39">
+        <v>5</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <f>B2*G2</f>
         <v>1800</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <f>C2*G2</f>
-        <v>6000</v>
-      </c>
-      <c r="D5" s="26">
+        <v>3800</v>
+      </c>
+      <c r="D5" s="25">
         <f>D2*G2</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="L5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <f>B3*G3</f>
         <v>1200</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <f>C3*G3</f>
-        <v>5000</v>
-      </c>
-      <c r="D6" s="26">
+        <v>3200</v>
+      </c>
+      <c r="D6" s="25">
         <f>D3*G3</f>
-        <v>12000</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="I6" s="40">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="J6" s="40">
         <v>10</v>
       </c>
-      <c r="B7" s="27">
+      <c r="L6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="24">
+        <f>G10*M3+G11*M4+G12*M5</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="42">
         <f>B4*G4</f>
         <v>2000</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="42">
         <f>C4*G4</f>
-        <v>4000</v>
-      </c>
-      <c r="D7" s="27">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="42">
         <f>D4*G4</f>
-        <v>10000</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="23">
-        <v>1000000</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="I7" s="40">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="J7" s="40">
+        <v>20</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="44">
+        <f>G6</f>
+        <v>1000</v>
+      </c>
+      <c r="C8" s="44">
+        <f>G7</f>
+        <v>2000</v>
+      </c>
+      <c r="D8" s="44">
+        <f>G8</f>
+        <v>3000</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="32">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="I8" s="39">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+      <c r="J8" s="39">
+        <v>30</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="23">
+        <f>M7*B10</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="28">
-        <f>SUM(B5:B7)</f>
-        <v>5000</v>
-      </c>
-      <c r="C8" s="28">
-        <f>SUM(C5:C7)</f>
-        <v>15000</v>
-      </c>
-      <c r="D8" s="28">
-        <f>SUM(D5:D7)</f>
-        <v>30000</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="B9" s="26">
+        <f>SUM(B5:B8)</f>
+        <v>6000</v>
+      </c>
+      <c r="C9" s="26">
+        <f>SUM(C5:C8)</f>
+        <v>12000</v>
+      </c>
+      <c r="D9" s="26">
+        <f>SUM(D5:D8)</f>
+        <v>18000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="L9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="24">
+        <f>B9*M7</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="27">
+        <f>B9*2</f>
+        <v>12000</v>
+      </c>
+      <c r="C10" s="28">
+        <f>C9*2</f>
+        <v>24000</v>
+      </c>
+      <c r="D10" s="28">
+        <f>D9*2</f>
+        <v>36000</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="21">
         <v>50</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="L10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="21">
+        <v>100</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="23">
+        <f>M10*C10</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="32">
+        <v>200</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="24">
+        <f>C9*M10</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="L14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="23">
+        <f>M13*D10</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="L15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="29">
+        <f>D9*M13</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="37">
+        <f>M8+M11+M14</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="30">
+        <f>M6+M9+M12+M15</f>
+        <v>1130000</v>
+      </c>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="29">
-        <f>B8*2</f>
-        <v>10000</v>
-      </c>
-      <c r="C9" s="30">
-        <f>C8*2</f>
-        <v>30000</v>
-      </c>
-      <c r="D9" s="30">
-        <f>D8*2</f>
-        <v>60000</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="24">
-        <f>B8*G8</f>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="24">
-        <f>G8*B9</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="25">
-        <f>G10-G9</f>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="24">
-        <f>C8*G12</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="F14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="24">
-        <f>G12*C9</f>
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="F15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="25">
-        <f>G14-G13</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="24">
-        <f>D8*G16</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="24">
-        <f>G16*D9</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="25">
-        <f>G18-G17</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="31">
-        <f>G7-G9-G13-G17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="32">
-        <f>G11+G15+G19</f>
-        <v>1000000</v>
+      <c r="M18" s="30">
+        <f>M16-M17</f>
+        <v>1030000</v>
       </c>
     </row>
   </sheetData>
